--- a/public/database/Trabajos.xlsx
+++ b/public/database/Trabajos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\IvelPink\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F69505-2BED-474A-9E4D-B99AD57618FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33C899-7B03-4750-94D6-F694F087E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>56936300432</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
